--- a/casos de prueba.xlsx
+++ b/casos de prueba.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micaela\Documents\python\ProyectofinalDego\proyectofinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaspar\Desktop\Appblog-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DA79C9-727F-4C2E-B54B-60EB7F69EC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{32DED1F2-EA99-4936-89A2-254A75F26AC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Nro caso de prueba:</t>
   </si>
@@ -100,12 +99,6 @@
     <t>Se creo el post satisfactoriamente, luego se edito y elimino satisfactoriamente</t>
   </si>
   <si>
-    <t>Proyecto final Dego para Coder House</t>
-  </si>
-  <si>
-    <t>Micaela</t>
-  </si>
-  <si>
     <t>Cargar foto de perfil</t>
   </si>
   <si>
@@ -146,13 +139,31 @@
   </si>
   <si>
     <t xml:space="preserve">Pude registrar el usuario, realice el log in y actualice los datos </t>
+  </si>
+  <si>
+    <t>Proyecto final para Coder House</t>
+  </si>
+  <si>
+    <t>Gaspar</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostrar avatar </t>
+  </si>
+  <si>
+    <t>una vez cargada la imagen de avatar por el admin, visualizarla en el panel superior</t>
+  </si>
+  <si>
+    <t>figura el mensaje "imagen usuario" sin reportarse la foto seleccionada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,16 +171,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -192,15 +251,307 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -516,230 +867,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24131CB-6934-4499-B1DE-D84F418DDEE6}">
-  <dimension ref="B4:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17">
+        <v>44763</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44767</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44774</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44774</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C15" s="4">
+        <v>44774</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C16" s="4">
+        <v>44776</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="C17" s="4">
+        <v>44778</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
         <v>8</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="C18" s="27">
+        <v>44782</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45039</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45039</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45039</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45039</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45039</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45039</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="C19" s="14">
+        <v>44782</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45039</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45039</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="F19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="25" t="s">
         <v>13</v>
       </c>
     </row>
